--- a/structure/_xbox_folder_structure/reference.xlsx
+++ b/structure/_xbox_folder_structure/reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\_xbox_folder_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9854E2-A624-4945-A15B-E762139A7AC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146CC9A2-5074-4FBA-8E1B-7EE906D36FAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,41 +18,42 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Flux ID</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>URL/Note</t>
+  </si>
   <si>
     <t>Markets</t>
   </si>
   <si>
-    <t>Flux ID</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>URL/Note</t>
-  </si>
-  <si>
     <t>~ Flux-Adj.</t>
   </si>
   <si>
-    <t xml:space="preserve">ETA </t>
+    <t>Trans DL</t>
+  </si>
+  <si>
+    <t>QA DL</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +61,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,8 +83,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -118,29 +133,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -157,6 +226,9 @@
     </dxf>
     <dxf>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -164,14 +236,11 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -186,7 +255,7 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -217,17 +286,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6C89283-F093-4414-B6A3-329AD7E60EA6}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:E6" xr:uid="{3F282DC1-E81B-4AF5-BD17-F5E7D74E8639}"/>
-  <sortState ref="A2:E4">
-    <sortCondition ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
+    <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F4BEA8FA-7F35-466C-A0D6-67DD1DA79DCD}" name="Flux ID"/>
-    <tableColumn id="2" xr3:uid="{20E61273-DE8E-45D6-AB99-FE0FA294BA9C}" name="File"/>
-    <tableColumn id="3" xr3:uid="{F909AD35-960B-4311-BD91-57F0D1E8CAE7}" name="URL/Note"/>
-    <tableColumn id="4" xr3:uid="{8F9EE10B-2B17-4545-8167-275BF5553593}" name="Markets"/>
-    <tableColumn id="5" xr3:uid="{CDEEAF1D-1246-4A7A-ABA0-126C8B761867}" name="~ Flux-Adj."/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flux ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="File" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="URL/Note" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Markets" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="~ Flux-Adj." dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,48 +600,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E3" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>